--- a/Auto_Table.xlsx
+++ b/Auto_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd_mooon/Desktop/study_wrap/TennisMatcher/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd_mooon/Desktop/study_wrap/LifeTennisMatcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4859B57-14CA-3840-8AEC-86920DF5C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27748E0C-E858-7C4B-9467-C82859323ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t xml:space="preserve">  LIFE 정기모임 진행일정</t>
   </si>
@@ -320,10 +320,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>라라라</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>오오오</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -584,6 +580,23 @@
   </si>
   <si>
     <t>LifeList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아무개</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1515,7 +1528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1764,22 +1777,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,6 +1806,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,6 +1816,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,6 +1831,12 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1825,14 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2097,7 +2111,7 @@
     <row r="1" spans="1:35" ht="50" customHeight="1" thickBot="1">
       <c r="A1" s="93">
         <f ca="1">TODAY()</f>
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -2108,91 +2122,91 @@
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
+      <c r="U1" s="102"/>
+      <c r="V1" s="102"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="86" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="86" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="86" t="s">
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="86" t="s">
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="90" t="s">
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="90"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -2234,7 +2248,7 @@
       <c r="A5" s="92">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="47"/>
@@ -2263,8 +2277,8 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="72"/>
       <c r="D6" s="73"/>
       <c r="E6" s="74"/>
@@ -2291,10 +2305,10 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" ht="50" customHeight="1">
-      <c r="A7" s="99">
+      <c r="A7" s="100">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="99" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="62"/>
@@ -2323,8 +2337,8 @@
       <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="80"/>
       <c r="D8" s="77"/>
       <c r="E8" s="78"/>
@@ -2354,7 +2368,7 @@
       <c r="A9" s="95">
         <v>0.8125</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="86" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="54"/>
@@ -2383,8 +2397,8 @@
       <c r="AI9" s="3"/>
     </row>
     <row r="10" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="80"/>
       <c r="D10" s="77"/>
       <c r="E10" s="78"/>
@@ -2411,10 +2425,10 @@
       <c r="AI10" s="3"/>
     </row>
     <row r="11" spans="1:35" ht="50" customHeight="1">
-      <c r="A11" s="99">
+      <c r="A11" s="100">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="99" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="54"/>
@@ -2439,8 +2453,8 @@
       <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="80"/>
       <c r="D12" s="77"/>
       <c r="E12" s="78"/>
@@ -2469,7 +2483,7 @@
       <c r="A13" s="95">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="86" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="54"/>
@@ -2497,8 +2511,8 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="82"/>
       <c r="D14" s="77"/>
       <c r="E14" s="83"/>
@@ -30135,6 +30149,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="A2:A3"/>
@@ -30151,11 +30170,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="K1:V1"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30177,14 +30191,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="105"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="B2" s="6" t="s">
@@ -30341,7 +30355,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -30371,17 +30385,17 @@
       <c r="G1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="111"/>
+      <c r="J1" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" ht="19.25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B2)</f>
@@ -30392,7 +30406,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E2)</f>
@@ -30414,7 +30428,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B3)</f>
@@ -30425,7 +30439,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E3)</f>
@@ -30435,11 +30449,11 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="112" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="109" t="s">
-        <v>90</v>
+      <c r="J3" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19.25" customHeight="1">
@@ -30447,7 +30461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B4)</f>
@@ -30458,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E4)</f>
@@ -30468,11 +30482,11 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="84" t="s">
         <v>91</v>
-      </c>
-      <c r="K4" s="109" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.25" customHeight="1">
@@ -30480,7 +30494,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B5)</f>
@@ -30491,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E5)</f>
@@ -30501,11 +30515,11 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="84" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" s="109" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19.25" customHeight="1">
@@ -30513,7 +30527,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B6)</f>
@@ -30524,7 +30538,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E6)</f>
@@ -30534,11 +30548,11 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="84" t="s">
         <v>95</v>
-      </c>
-      <c r="K6" s="109" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19.25" customHeight="1">
@@ -30546,7 +30560,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B7)</f>
@@ -30557,7 +30571,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E7)</f>
@@ -30567,11 +30581,11 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" s="84" t="s">
         <v>97</v>
-      </c>
-      <c r="K7" s="109" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="19.25" customHeight="1">
@@ -30579,7 +30593,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B8)</f>
@@ -30590,7 +30604,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="9">
         <f xml:space="preserve"> COUNTIF(Match_schedule!$C$5:$R$14,#REF!)</f>
@@ -30600,11 +30614,11 @@
         <f xml:space="preserve"> COUNTIF(Match_schedule!$S$5:$V$14,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="109" t="s">
+      <c r="J8" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="84" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" s="109" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.25" customHeight="1">
@@ -30612,7 +30626,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B9)</f>
@@ -30631,11 +30645,11 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="109" t="s">
+      <c r="J9" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="84" t="s">
         <v>101</v>
-      </c>
-      <c r="K9" s="109" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19.25" customHeight="1">
@@ -30643,7 +30657,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B10)</f>
@@ -30662,10 +30676,10 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="K10" s="109"/>
+      <c r="J10" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="84"/>
     </row>
     <row r="11" spans="1:11" ht="19.25" customHeight="1">
       <c r="A11" s="9">
@@ -30691,10 +30705,10 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="109"/>
+      <c r="J11" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:11" ht="19.25" customHeight="1">
       <c r="A12" s="9">
@@ -30718,6 +30732,9 @@
       <c r="G12" s="9">
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E11)</f>
         <v>0</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="19.25" customHeight="1">
@@ -30750,7 +30767,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B14)</f>
@@ -30941,7 +30958,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="110" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="17">
@@ -31015,7 +31032,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="17">
-      <c r="A3" s="107"/>
+      <c r="A3" s="111"/>
       <c r="B3" s="26">
         <v>2</v>
       </c>
@@ -31087,7 +31104,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="17">
-      <c r="A4" s="107"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -31159,7 +31176,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="17">
-      <c r="A5" s="107"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -31231,7 +31248,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="17">
-      <c r="A6" s="107"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="26">
         <v>6</v>
       </c>
@@ -31303,7 +31320,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="17">
-      <c r="A7" s="108"/>
+      <c r="A7" s="112"/>
       <c r="B7" s="34">
         <v>2</v>
       </c>
@@ -31375,7 +31392,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="17">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="110" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38">
@@ -31449,7 +31466,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="17">
-      <c r="A9" s="107"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="26">
         <v>2</v>
       </c>
@@ -31521,7 +31538,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="17">
-      <c r="A10" s="107"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -31593,7 +31610,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17">
-      <c r="A11" s="107"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="26">
         <v>7</v>
       </c>
@@ -31665,7 +31682,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17">
-      <c r="A12" s="107"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="26">
         <v>2</v>
       </c>
@@ -31737,7 +31754,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17">
-      <c r="A13" s="108"/>
+      <c r="A13" s="112"/>
       <c r="B13" s="42">
         <v>7</v>
       </c>
@@ -31782,7 +31799,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="110" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="38">
@@ -31856,7 +31873,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17">
-      <c r="A15" s="107"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="26">
         <v>2</v>
       </c>
@@ -31928,7 +31945,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17">
-      <c r="A16" s="107"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="26">
         <v>3</v>
       </c>
@@ -32000,7 +32017,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="107"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="26">
         <v>7</v>
       </c>
@@ -32054,7 +32071,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="107"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="30">
         <v>3</v>
       </c>
@@ -32108,7 +32125,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="107"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="26">
         <v>2</v>
       </c>
@@ -32162,7 +32179,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="107"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="30">
         <v>2</v>
       </c>
@@ -32216,7 +32233,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="107"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="26">
         <v>10</v>
       </c>
@@ -32270,7 +32287,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="108"/>
+      <c r="A22" s="112"/>
       <c r="B22" s="34">
         <v>2</v>
       </c>
@@ -32324,7 +32341,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="110" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="17">
@@ -32380,7 +32397,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="107"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="26">
         <v>3</v>
       </c>
@@ -32434,7 +32451,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="107"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="26">
         <v>11</v>
       </c>
@@ -32461,7 +32478,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="107"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="30">
         <v>3</v>
       </c>
@@ -32488,7 +32505,7 @@
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="107"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="26">
         <v>11</v>
       </c>
@@ -32515,7 +32532,7 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="107"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="26">
         <v>7</v>
       </c>
@@ -32542,7 +32559,7 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="107"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="26">
         <v>7</v>
       </c>
@@ -32569,7 +32586,7 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="107"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="26">
         <v>13</v>
       </c>
@@ -32596,7 +32613,7 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="108"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="34">
         <v>3</v>
       </c>
@@ -32623,7 +32640,7 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="110" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="17">
@@ -32652,7 +32669,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="107"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="26">
         <v>3</v>
       </c>
@@ -32679,7 +32696,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="107"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="26">
         <v>11</v>
       </c>
@@ -32706,7 +32723,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="107"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="30">
         <v>3</v>
       </c>
@@ -32733,7 +32750,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="107"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="26">
         <v>3</v>
       </c>
@@ -32760,7 +32777,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="107"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="26">
         <v>3</v>
       </c>
@@ -32787,7 +32804,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="107"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="26">
         <v>11</v>
       </c>
@@ -32814,7 +32831,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="107"/>
+      <c r="A39" s="111"/>
       <c r="B39" s="26">
         <v>11</v>
       </c>
@@ -32841,7 +32858,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="107"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="26">
         <v>3</v>
       </c>
@@ -32868,7 +32885,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="107"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="26">
         <v>15</v>
       </c>
@@ -32895,7 +32912,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="108"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="34">
         <v>3</v>
       </c>
@@ -32922,7 +32939,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="110" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="38">
@@ -32951,7 +32968,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="107"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="26">
         <v>14</v>
       </c>
@@ -32978,7 +32995,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="107"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="26">
         <v>3</v>
       </c>
@@ -33005,7 +33022,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="107"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="26">
         <v>8</v>
       </c>
@@ -33032,7 +33049,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="107"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="26">
         <v>3</v>
       </c>
@@ -33059,7 +33076,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="107"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="30">
         <v>3</v>
       </c>
@@ -33086,7 +33103,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="107"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="30">
         <v>3</v>
       </c>
@@ -33113,7 +33130,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="107"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="26">
         <v>11</v>
       </c>
@@ -33140,7 +33157,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="108"/>
+      <c r="A51" s="112"/>
       <c r="B51" s="34">
         <v>11</v>
       </c>
@@ -33167,7 +33184,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="110" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="17">
@@ -33196,7 +33213,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="107"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="30">
         <v>8</v>
       </c>
@@ -33223,7 +33240,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="107"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="26">
         <v>4</v>
       </c>
@@ -33250,7 +33267,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="107"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="30">
         <v>3</v>
       </c>
@@ -33277,7 +33294,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="107"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="26">
         <v>12</v>
       </c>
@@ -33304,7 +33321,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="107"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="26">
         <v>11</v>
       </c>
@@ -33331,7 +33348,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="107"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="26">
         <v>3</v>
       </c>
@@ -33358,7 +33375,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="107"/>
+      <c r="A59" s="111"/>
       <c r="B59" s="26">
         <v>8</v>
       </c>
@@ -33385,7 +33402,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="108"/>
+      <c r="A60" s="112"/>
       <c r="B60" s="34">
         <v>3</v>
       </c>
@@ -33412,7 +33429,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="110" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="38">
@@ -33441,7 +33458,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="107"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="26">
         <v>12</v>
       </c>
@@ -33468,7 +33485,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="107"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="26">
         <v>8</v>
       </c>
@@ -33495,7 +33512,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="107"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="26">
         <v>4</v>
       </c>
@@ -33522,7 +33539,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="107"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="30">
         <v>4</v>
       </c>
@@ -33549,7 +33566,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="108"/>
+      <c r="A66" s="112"/>
       <c r="B66" s="34">
         <v>4</v>
       </c>
@@ -33576,7 +33593,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="110" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="38">
@@ -33605,7 +33622,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="107"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="30">
         <v>4</v>
       </c>
@@ -33632,7 +33649,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="107"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="30">
         <v>4</v>
       </c>
@@ -33659,7 +33676,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="107"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="26">
         <v>8</v>
       </c>
@@ -33686,7 +33703,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="107"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="26">
         <v>12</v>
       </c>
@@ -33713,7 +33730,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="108"/>
+      <c r="A72" s="112"/>
       <c r="B72" s="34">
         <v>4</v>
       </c>
@@ -33740,7 +33757,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="110" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="38">
@@ -33769,7 +33786,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="107"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="26">
         <v>4</v>
       </c>
@@ -33796,7 +33813,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="107"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="26">
         <v>4</v>
       </c>
@@ -33823,7 +33840,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="107"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="26">
         <v>12</v>
       </c>
@@ -33850,7 +33867,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="107"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="30">
         <v>4</v>
       </c>
@@ -33877,7 +33894,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="108"/>
+      <c r="A78" s="112"/>
       <c r="B78" s="34">
         <v>4</v>
       </c>
@@ -33904,7 +33921,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="110" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="17">
@@ -33933,7 +33950,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="107"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="26">
         <v>4</v>
       </c>
@@ -33960,7 +33977,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="107"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="26">
         <v>4</v>
       </c>
@@ -33987,7 +34004,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="107"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="26">
         <v>5</v>
       </c>
@@ -34014,7 +34031,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="108"/>
+      <c r="A83" s="112"/>
       <c r="B83" s="34">
         <v>4</v>
       </c>
@@ -34042,17 +34059,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A83"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto_Table.xlsx
+++ b/Auto_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd_mooon/Desktop/study_wrap/LifeTennisMatcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27748E0C-E858-7C4B-9467-C82859323ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0043A0-1709-7B49-AEC2-3A4AADD32BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t xml:space="preserve">  LIFE 정기모임 진행일정</t>
   </si>
@@ -384,219 +384,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>김예인</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문광식</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문지정</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박동언</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서가연</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박종성</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서자랑</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오성목</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장은비</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>임채경</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정예원</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정기완</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최은진</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조창현</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>홍상현</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>아무개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아무개</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -799,21 +587,6 @@
       <sz val="18"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1528,7 +1301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1777,18 +1550,22 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1806,9 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1816,9 +1590,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,12 +1602,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,7 +1611,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2122,91 +1886,91 @@
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="90"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="88" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="88" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="88" t="s">
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="88" t="s">
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="103" t="s">
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="90"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="89"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -2248,7 +2012,7 @@
       <c r="A5" s="92">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="91" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="47"/>
@@ -2277,8 +2041,8 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A6" s="91"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="72"/>
       <c r="D6" s="73"/>
       <c r="E6" s="74"/>
@@ -2305,10 +2069,10 @@
       <c r="AI6" s="2"/>
     </row>
     <row r="7" spans="1:35" ht="50" customHeight="1">
-      <c r="A7" s="100">
+      <c r="A7" s="99">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="62"/>
@@ -2337,8 +2101,8 @@
       <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A8" s="91"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="80"/>
       <c r="D8" s="77"/>
       <c r="E8" s="78"/>
@@ -2368,7 +2132,7 @@
       <c r="A9" s="95">
         <v>0.8125</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="91" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="54"/>
@@ -2397,8 +2161,8 @@
       <c r="AI9" s="3"/>
     </row>
     <row r="10" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="80"/>
       <c r="D10" s="77"/>
       <c r="E10" s="78"/>
@@ -2425,10 +2189,10 @@
       <c r="AI10" s="3"/>
     </row>
     <row r="11" spans="1:35" ht="50" customHeight="1">
-      <c r="A11" s="100">
+      <c r="A11" s="99">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="84" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="54"/>
@@ -2453,8 +2217,8 @@
       <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="80"/>
       <c r="D12" s="77"/>
       <c r="E12" s="78"/>
@@ -2483,7 +2247,7 @@
       <c r="A13" s="95">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="91" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="54"/>
@@ -2511,8 +2275,8 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="82"/>
       <c r="D14" s="77"/>
       <c r="E14" s="83"/>
@@ -30149,11 +29913,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="A2:A3"/>
@@ -30170,6 +29929,11 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="K1:V1"/>
     <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30191,14 +29955,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="107"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="B2" s="6" t="s">
@@ -30352,20 +30116,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6808D1-4EF7-4C72-9F65-B0AE5563465A}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.25" customHeight="1">
+    <row r="1" spans="1:7" ht="19.25" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="8" t="s">
         <v>55</v>
@@ -30385,12 +30147,8 @@
       <c r="G1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="109"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:7" ht="19.25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -30416,14 +30174,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E2)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:7" ht="19.25" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -30449,14 +30201,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E3)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="4" spans="1:7" ht="19.25" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -30482,14 +30228,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="5" spans="1:7" ht="19.25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -30515,14 +30255,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="6" spans="1:7" ht="19.25" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -30548,14 +30282,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E6)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="7" spans="1:7" ht="19.25" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -30581,14 +30309,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="8" spans="1:7" ht="19.25" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -30614,14 +30336,8 @@
         <f xml:space="preserve"> COUNTIF(Match_schedule!$S$5:$V$14,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:7" ht="19.25" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -30645,14 +30361,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="K9" s="84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" ht="19.25" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -30676,12 +30386,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E9)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="84"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="11" spans="1:7" ht="19.25" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -30705,12 +30411,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="84"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="12" spans="1:7" ht="19.25" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -30733,11 +30435,8 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.25" customHeight="1">
+    </row>
+    <row r="13" spans="1:7" ht="19.25" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -30762,12 +30461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="19.25" customHeight="1">
+    <row r="14" spans="1:7" ht="19.25" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B14)</f>
@@ -30787,7 +30486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="19.25" customHeight="1">
+    <row r="15" spans="1:7" ht="19.25" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -30810,7 +30509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.25" customHeight="1">
+    <row r="16" spans="1:7" ht="19.25" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -30857,9 +30556,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30958,7 +30654,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="106" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="17">
@@ -31032,7 +30728,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="17">
-      <c r="A3" s="111"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="26">
         <v>2</v>
       </c>
@@ -31104,7 +30800,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="17">
-      <c r="A4" s="111"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -31176,7 +30872,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="17">
-      <c r="A5" s="111"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -31248,7 +30944,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="17">
-      <c r="A6" s="111"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="26">
         <v>6</v>
       </c>
@@ -31320,7 +31016,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="17">
-      <c r="A7" s="112"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="34">
         <v>2</v>
       </c>
@@ -31392,7 +31088,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="17">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="106" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38">
@@ -31466,7 +31162,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="17">
-      <c r="A9" s="111"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="26">
         <v>2</v>
       </c>
@@ -31538,7 +31234,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="17">
-      <c r="A10" s="111"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -31610,7 +31306,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17">
-      <c r="A11" s="111"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="26">
         <v>7</v>
       </c>
@@ -31682,7 +31378,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17">
-      <c r="A12" s="111"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="26">
         <v>2</v>
       </c>
@@ -31754,7 +31450,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17">
-      <c r="A13" s="112"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="42">
         <v>7</v>
       </c>
@@ -31799,7 +31495,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="106" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="38">
@@ -31873,7 +31569,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17">
-      <c r="A15" s="111"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="26">
         <v>2</v>
       </c>
@@ -31945,7 +31641,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17">
-      <c r="A16" s="111"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="26">
         <v>3</v>
       </c>
@@ -32017,7 +31713,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="111"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="26">
         <v>7</v>
       </c>
@@ -32071,7 +31767,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="111"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="30">
         <v>3</v>
       </c>
@@ -32125,7 +31821,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="111"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="26">
         <v>2</v>
       </c>
@@ -32179,7 +31875,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="111"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="30">
         <v>2</v>
       </c>
@@ -32233,7 +31929,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="111"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="26">
         <v>10</v>
       </c>
@@ -32287,7 +31983,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="112"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="34">
         <v>2</v>
       </c>
@@ -32341,7 +32037,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="106" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="17">
@@ -32397,7 +32093,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="111"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="26">
         <v>3</v>
       </c>
@@ -32451,7 +32147,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="111"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="26">
         <v>11</v>
       </c>
@@ -32478,7 +32174,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="111"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="30">
         <v>3</v>
       </c>
@@ -32505,7 +32201,7 @@
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="111"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="26">
         <v>11</v>
       </c>
@@ -32532,7 +32228,7 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="111"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="26">
         <v>7</v>
       </c>
@@ -32559,7 +32255,7 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="111"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="26">
         <v>7</v>
       </c>
@@ -32586,7 +32282,7 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="111"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="26">
         <v>13</v>
       </c>
@@ -32613,7 +32309,7 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="112"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="34">
         <v>3</v>
       </c>
@@ -32640,7 +32336,7 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="106" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="17">
@@ -32669,7 +32365,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="111"/>
+      <c r="A33" s="107"/>
       <c r="B33" s="26">
         <v>3</v>
       </c>
@@ -32696,7 +32392,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="111"/>
+      <c r="A34" s="107"/>
       <c r="B34" s="26">
         <v>11</v>
       </c>
@@ -32723,7 +32419,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="111"/>
+      <c r="A35" s="107"/>
       <c r="B35" s="30">
         <v>3</v>
       </c>
@@ -32750,7 +32446,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="111"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="26">
         <v>3</v>
       </c>
@@ -32777,7 +32473,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="111"/>
+      <c r="A37" s="107"/>
       <c r="B37" s="26">
         <v>3</v>
       </c>
@@ -32804,7 +32500,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="111"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="26">
         <v>11</v>
       </c>
@@ -32831,7 +32527,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="111"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="26">
         <v>11</v>
       </c>
@@ -32858,7 +32554,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="111"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="26">
         <v>3</v>
       </c>
@@ -32885,7 +32581,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="111"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="26">
         <v>15</v>
       </c>
@@ -32912,7 +32608,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="112"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="34">
         <v>3</v>
       </c>
@@ -32939,7 +32635,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="106" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="38">
@@ -32968,7 +32664,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="111"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="26">
         <v>14</v>
       </c>
@@ -32995,7 +32691,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="111"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="26">
         <v>3</v>
       </c>
@@ -33022,7 +32718,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="111"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="26">
         <v>8</v>
       </c>
@@ -33049,7 +32745,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="111"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="26">
         <v>3</v>
       </c>
@@ -33076,7 +32772,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="111"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="30">
         <v>3</v>
       </c>
@@ -33103,7 +32799,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="111"/>
+      <c r="A49" s="107"/>
       <c r="B49" s="30">
         <v>3</v>
       </c>
@@ -33130,7 +32826,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="111"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="26">
         <v>11</v>
       </c>
@@ -33157,7 +32853,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="112"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="34">
         <v>11</v>
       </c>
@@ -33184,7 +32880,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="110" t="s">
+      <c r="A52" s="106" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="17">
@@ -33213,7 +32909,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="111"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="30">
         <v>8</v>
       </c>
@@ -33240,7 +32936,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="111"/>
+      <c r="A54" s="107"/>
       <c r="B54" s="26">
         <v>4</v>
       </c>
@@ -33267,7 +32963,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="111"/>
+      <c r="A55" s="107"/>
       <c r="B55" s="30">
         <v>3</v>
       </c>
@@ -33294,7 +32990,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="111"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="26">
         <v>12</v>
       </c>
@@ -33321,7 +33017,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="111"/>
+      <c r="A57" s="107"/>
       <c r="B57" s="26">
         <v>11</v>
       </c>
@@ -33348,7 +33044,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="111"/>
+      <c r="A58" s="107"/>
       <c r="B58" s="26">
         <v>3</v>
       </c>
@@ -33375,7 +33071,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="111"/>
+      <c r="A59" s="107"/>
       <c r="B59" s="26">
         <v>8</v>
       </c>
@@ -33402,7 +33098,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="112"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="34">
         <v>3</v>
       </c>
@@ -33429,7 +33125,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="106" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="38">
@@ -33458,7 +33154,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="111"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="26">
         <v>12</v>
       </c>
@@ -33485,7 +33181,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="111"/>
+      <c r="A63" s="107"/>
       <c r="B63" s="26">
         <v>8</v>
       </c>
@@ -33512,7 +33208,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="111"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="26">
         <v>4</v>
       </c>
@@ -33539,7 +33235,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="111"/>
+      <c r="A65" s="107"/>
       <c r="B65" s="30">
         <v>4</v>
       </c>
@@ -33566,7 +33262,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="112"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="34">
         <v>4</v>
       </c>
@@ -33593,7 +33289,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="106" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="38">
@@ -33622,7 +33318,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="111"/>
+      <c r="A68" s="107"/>
       <c r="B68" s="30">
         <v>4</v>
       </c>
@@ -33649,7 +33345,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="111"/>
+      <c r="A69" s="107"/>
       <c r="B69" s="30">
         <v>4</v>
       </c>
@@ -33676,7 +33372,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="111"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="26">
         <v>8</v>
       </c>
@@ -33703,7 +33399,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="111"/>
+      <c r="A71" s="107"/>
       <c r="B71" s="26">
         <v>12</v>
       </c>
@@ -33730,7 +33426,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="112"/>
+      <c r="A72" s="108"/>
       <c r="B72" s="34">
         <v>4</v>
       </c>
@@ -33757,7 +33453,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="110" t="s">
+      <c r="A73" s="106" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="38">
@@ -33786,7 +33482,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="111"/>
+      <c r="A74" s="107"/>
       <c r="B74" s="26">
         <v>4</v>
       </c>
@@ -33813,7 +33509,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="111"/>
+      <c r="A75" s="107"/>
       <c r="B75" s="26">
         <v>4</v>
       </c>
@@ -33840,7 +33536,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="111"/>
+      <c r="A76" s="107"/>
       <c r="B76" s="26">
         <v>12</v>
       </c>
@@ -33867,7 +33563,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="111"/>
+      <c r="A77" s="107"/>
       <c r="B77" s="30">
         <v>4</v>
       </c>
@@ -33894,7 +33590,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="112"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="34">
         <v>4</v>
       </c>
@@ -33921,7 +33617,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="110" t="s">
+      <c r="A79" s="106" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="17">
@@ -33950,7 +33646,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="111"/>
+      <c r="A80" s="107"/>
       <c r="B80" s="26">
         <v>4</v>
       </c>
@@ -33977,7 +33673,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="111"/>
+      <c r="A81" s="107"/>
       <c r="B81" s="26">
         <v>4</v>
       </c>
@@ -34004,7 +33700,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="111"/>
+      <c r="A82" s="107"/>
       <c r="B82" s="26">
         <v>5</v>
       </c>
@@ -34031,7 +33727,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="112"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="34">
         <v>4</v>
       </c>
@@ -34059,17 +33755,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A83"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Auto_Table.xlsx
+++ b/Auto_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd_mooon/Desktop/study_wrap/LifeTennisMatcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0043A0-1709-7B49-AEC2-3A4AADD32BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C24B2-945F-EB42-9AD9-FF5D3CCB0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t xml:space="preserve">  LIFE 정기모임 진행일정</t>
   </si>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>칠칠칠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김종현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -352,22 +348,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>임채경</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정기완</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조창현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍상현</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김예인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -384,7 +364,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>아무개</t>
+    <t>라라라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1611,6 +1595,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -30116,10 +30103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6808D1-4EF7-4C72-9F65-B0AE5563465A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -30127,7 +30114,7 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.25" customHeight="1">
+    <row r="1" spans="1:11" ht="19.25" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="8" t="s">
         <v>55</v>
@@ -30147,13 +30134,22 @@
       <c r="G1" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.25" customHeight="1">
+      <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B2)</f>
@@ -30164,7 +30160,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E2)</f>
@@ -30174,13 +30170,25 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, E2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.25" customHeight="1">
+      <c r="I2" s="25">
+        <f>COUNTA(B2:B17)</f>
+        <v>9</v>
+      </c>
+      <c r="J2" s="25">
+        <f>COUNTA(E2:E17)</f>
+        <v>6</v>
+      </c>
+      <c r="K2" s="25">
+        <f>COUNTA(B2:B17)+COUNTA(E2:E17)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.25" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B3)</f>
@@ -30191,7 +30199,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F3" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E3)</f>
@@ -30202,12 +30210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.25" customHeight="1">
+    <row r="4" spans="1:11" ht="19.25" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B4)</f>
@@ -30218,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F4" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E4)</f>
@@ -30229,12 +30237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.25" customHeight="1">
+    <row r="5" spans="1:11" ht="19.25" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B5)</f>
@@ -30245,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F5" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E5)</f>
@@ -30256,12 +30264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.25" customHeight="1">
+    <row r="6" spans="1:11" ht="19.25" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B6)</f>
@@ -30283,12 +30291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.25" customHeight="1">
+    <row r="7" spans="1:11" ht="19.25" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B7)</f>
@@ -30310,12 +30318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.25" customHeight="1">
+    <row r="8" spans="1:11" ht="19.25" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C8" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B8)</f>
@@ -30325,9 +30333,7 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, B8)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>75</v>
-      </c>
+      <c r="E8" s="46"/>
       <c r="F8" s="9">
         <f xml:space="preserve"> COUNTIF(Match_schedule!$C$5:$R$14,#REF!)</f>
         <v>0</v>
@@ -30337,12 +30343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.25" customHeight="1">
+    <row r="9" spans="1:11" ht="19.25" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C9" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B9)</f>
@@ -30362,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.25" customHeight="1">
+    <row r="10" spans="1:11" ht="19.25" customHeight="1">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -30387,13 +30393,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.25" customHeight="1">
+    <row r="11" spans="1:11" ht="19.25" customHeight="1">
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>70</v>
-      </c>
+      <c r="B11" s="46"/>
       <c r="C11" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B11)</f>
         <v>0</v>
@@ -30412,13 +30416,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.25" customHeight="1">
+    <row r="12" spans="1:11" ht="19.25" customHeight="1">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>71</v>
-      </c>
+      <c r="B12" s="46"/>
       <c r="C12" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B12)</f>
         <v>0</v>
@@ -30436,13 +30438,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.25" customHeight="1">
+    <row r="13" spans="1:11" ht="19.25" customHeight="1">
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>72</v>
-      </c>
+      <c r="B13" s="46"/>
       <c r="C13" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B13)</f>
         <v>0</v>
@@ -30461,13 +30461,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.25" customHeight="1">
+    <row r="14" spans="1:11" ht="19.25" customHeight="1">
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>89</v>
-      </c>
+      <c r="B14" s="46"/>
       <c r="C14" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B14)</f>
         <v>0</v>
@@ -30486,7 +30484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19.25" customHeight="1">
+    <row r="15" spans="1:11" ht="19.25" customHeight="1">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -30509,7 +30507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.25" customHeight="1">
+    <row r="16" spans="1:11" ht="19.25" customHeight="1">
       <c r="A16" s="9">
         <v>15</v>
       </c>

--- a/Auto_Table.xlsx
+++ b/Auto_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd_mooon/Desktop/study_wrap/LifeTennisMatcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C24B2-945F-EB42-9AD9-FF5D3CCB0885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C88E8E-ADD4-9D42-B519-2E6A2F36D34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>육육육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김종현</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -369,6 +365,10 @@
   </si>
   <si>
     <t>TOTAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마마마</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1534,22 +1534,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,6 +1564,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1574,6 +1574,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1593,9 +1596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1860,19 +1860,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A1" s="93">
+      <c r="A1" s="92">
         <f ca="1">TODAY()</f>
         <v>45938</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="100" t="s">
         <v>0</v>
       </c>
@@ -1892,13 +1892,13 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="88"/>
@@ -1926,33 +1926,33 @@
       <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="86" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="87" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
       <c r="F3" s="89"/>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="87" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="88"/>
       <c r="I3" s="88"/>
       <c r="J3" s="89"/>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="87" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
       <c r="N3" s="89"/>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="87" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="88"/>
       <c r="Q3" s="88"/>
       <c r="R3" s="89"/>
-      <c r="S3" s="90" t="s">
+      <c r="S3" s="102" t="s">
         <v>8</v>
       </c>
       <c r="T3" s="88"/>
@@ -1967,39 +1967,39 @@
       <c r="A4" s="5">
         <v>0.75</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="98"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AI4" s="3"/>
     </row>
     <row r="5" spans="1:35" ht="50" customHeight="1">
-      <c r="A5" s="92">
+      <c r="A5" s="91">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="85" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="47"/>
@@ -2028,8 +2028,8 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="72"/>
       <c r="D6" s="73"/>
       <c r="E6" s="74"/>
@@ -2059,7 +2059,7 @@
       <c r="A7" s="99">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="62"/>
@@ -2088,8 +2088,8 @@
       <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="85"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="80"/>
       <c r="D8" s="77"/>
       <c r="E8" s="78"/>
@@ -2116,10 +2116,10 @@
       <c r="AI8" s="3"/>
     </row>
     <row r="9" spans="1:35" ht="50" customHeight="1">
-      <c r="A9" s="95">
+      <c r="A9" s="94">
         <v>0.8125</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="85" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="54"/>
@@ -2148,8 +2148,8 @@
       <c r="AI9" s="3"/>
     </row>
     <row r="10" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="85"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="80"/>
       <c r="D10" s="77"/>
       <c r="E10" s="78"/>
@@ -2179,7 +2179,7 @@
       <c r="A11" s="99">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="98" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="54"/>
@@ -2204,8 +2204,8 @@
       <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="85"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="80"/>
       <c r="D12" s="77"/>
       <c r="E12" s="78"/>
@@ -2231,10 +2231,10 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="50" customHeight="1">
-      <c r="A13" s="95">
+      <c r="A13" s="94">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="54"/>
@@ -2262,8 +2262,8 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="50" customHeight="1" thickBot="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="82"/>
       <c r="D14" s="77"/>
       <c r="E14" s="83"/>
@@ -29900,6 +29900,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="A2:A3"/>
@@ -29916,11 +29921,6 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="K1:V1"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29942,14 +29942,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="105"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:5" ht="18">
       <c r="B2" s="6" t="s">
@@ -30105,8 +30105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6808D1-4EF7-4C72-9F65-B0AE5563465A}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -30140,8 +30140,8 @@
       <c r="J1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="109" t="s">
-        <v>85</v>
+      <c r="K1" s="84" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.25" customHeight="1">
@@ -30149,7 +30149,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B2)</f>
@@ -30160,7 +30160,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E2)</f>
@@ -30172,11 +30172,11 @@
       </c>
       <c r="I2" s="25">
         <f>COUNTA(B2:B17)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="25">
         <f>COUNTA(E2:E17)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" s="25">
         <f>COUNTA(B2:B17)+COUNTA(E2:E17)</f>
@@ -30188,7 +30188,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B3)</f>
@@ -30199,7 +30199,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E3)</f>
@@ -30215,7 +30215,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B4)</f>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E4)</f>
@@ -30242,7 +30242,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B5)</f>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E5)</f>
@@ -30269,7 +30269,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B6)</f>
@@ -30306,9 +30306,7 @@
         <f>COUNTIF(Match_schedule!$S$5:$V$14, B7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>74</v>
-      </c>
+      <c r="E7" s="46"/>
       <c r="F7" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, E7)</f>
         <v>0</v>
@@ -30373,7 +30371,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B10)</f>
@@ -30397,7 +30395,9 @@
       <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="C11" s="9">
         <f>COUNTIF(Match_schedule!$C$5:$R$14, B11)</f>
         <v>0</v>
@@ -30652,7 +30652,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="17">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="107" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="17">
@@ -30726,7 +30726,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="17">
-      <c r="A3" s="107"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="26">
         <v>2</v>
       </c>
@@ -30798,7 +30798,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="17">
-      <c r="A4" s="107"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="26">
         <v>2</v>
       </c>
@@ -30870,7 +30870,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="17">
-      <c r="A5" s="107"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="30">
         <v>2</v>
       </c>
@@ -30942,7 +30942,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="17">
-      <c r="A6" s="107"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="26">
         <v>6</v>
       </c>
@@ -31014,7 +31014,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="17">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="34">
         <v>2</v>
       </c>
@@ -31086,7 +31086,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="17">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="107" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="38">
@@ -31160,7 +31160,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="17">
-      <c r="A9" s="107"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="26">
         <v>2</v>
       </c>
@@ -31232,7 +31232,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="17">
-      <c r="A10" s="107"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="26">
         <v>7</v>
       </c>
@@ -31304,7 +31304,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="17">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="26">
         <v>7</v>
       </c>
@@ -31376,7 +31376,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="17">
-      <c r="A12" s="107"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="26">
         <v>2</v>
       </c>
@@ -31448,7 +31448,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="17">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="42">
         <v>7</v>
       </c>
@@ -31493,7 +31493,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="17">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="107" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="38">
@@ -31567,7 +31567,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="17">
-      <c r="A15" s="107"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="26">
         <v>2</v>
       </c>
@@ -31639,7 +31639,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="17">
-      <c r="A16" s="107"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="26">
         <v>3</v>
       </c>
@@ -31711,7 +31711,7 @@
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="107"/>
+      <c r="A17" s="108"/>
       <c r="B17" s="26">
         <v>7</v>
       </c>
@@ -31765,7 +31765,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="107"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="30">
         <v>3</v>
       </c>
@@ -31819,7 +31819,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="107"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="26">
         <v>2</v>
       </c>
@@ -31873,7 +31873,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="107"/>
+      <c r="A20" s="108"/>
       <c r="B20" s="30">
         <v>2</v>
       </c>
@@ -31927,7 +31927,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="107"/>
+      <c r="A21" s="108"/>
       <c r="B21" s="26">
         <v>10</v>
       </c>
@@ -31981,7 +31981,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="108"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="34">
         <v>2</v>
       </c>
@@ -32035,7 +32035,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="107" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="17">
@@ -32091,7 +32091,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="107"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="26">
         <v>3</v>
       </c>
@@ -32145,7 +32145,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="107"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="26">
         <v>11</v>
       </c>
@@ -32172,7 +32172,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="107"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="30">
         <v>3</v>
       </c>
@@ -32199,7 +32199,7 @@
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="107"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="26">
         <v>11</v>
       </c>
@@ -32226,7 +32226,7 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="107"/>
+      <c r="A28" s="108"/>
       <c r="B28" s="26">
         <v>7</v>
       </c>
@@ -32253,7 +32253,7 @@
       </c>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="107"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="26">
         <v>7</v>
       </c>
@@ -32280,7 +32280,7 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="107"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="26">
         <v>13</v>
       </c>
@@ -32307,7 +32307,7 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="108"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="34">
         <v>3</v>
       </c>
@@ -32334,7 +32334,7 @@
       </c>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="107" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="17">
@@ -32363,7 +32363,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="107"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="26">
         <v>3</v>
       </c>
@@ -32390,7 +32390,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="107"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="26">
         <v>11</v>
       </c>
@@ -32417,7 +32417,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="107"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="30">
         <v>3</v>
       </c>
@@ -32444,7 +32444,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="107"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="26">
         <v>3</v>
       </c>
@@ -32471,7 +32471,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="107"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="26">
         <v>3</v>
       </c>
@@ -32498,7 +32498,7 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="107"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="26">
         <v>11</v>
       </c>
@@ -32525,7 +32525,7 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="107"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="26">
         <v>11</v>
       </c>
@@ -32552,7 +32552,7 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="107"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="26">
         <v>3</v>
       </c>
@@ -32579,7 +32579,7 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="107"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="26">
         <v>15</v>
       </c>
@@ -32606,7 +32606,7 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="108"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="34">
         <v>3</v>
       </c>
@@ -32633,7 +32633,7 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="107" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="38">
@@ -32662,7 +32662,7 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="107"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="26">
         <v>14</v>
       </c>
@@ -32689,7 +32689,7 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="107"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="26">
         <v>3</v>
       </c>
@@ -32716,7 +32716,7 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="107"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="26">
         <v>8</v>
       </c>
@@ -32743,7 +32743,7 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="107"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="26">
         <v>3</v>
       </c>
@@ -32770,7 +32770,7 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="107"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="30">
         <v>3</v>
       </c>
@@ -32797,7 +32797,7 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="107"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="30">
         <v>3</v>
       </c>
@@ -32824,7 +32824,7 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="107"/>
+      <c r="A50" s="108"/>
       <c r="B50" s="26">
         <v>11</v>
       </c>
@@ -32851,7 +32851,7 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="108"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="34">
         <v>11</v>
       </c>
@@ -32878,7 +32878,7 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="107" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="17">
@@ -32907,7 +32907,7 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="107"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="30">
         <v>8</v>
       </c>
@@ -32934,7 +32934,7 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="107"/>
+      <c r="A54" s="108"/>
       <c r="B54" s="26">
         <v>4</v>
       </c>
@@ -32961,7 +32961,7 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="107"/>
+      <c r="A55" s="108"/>
       <c r="B55" s="30">
         <v>3</v>
       </c>
@@ -32988,7 +32988,7 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="107"/>
+      <c r="A56" s="108"/>
       <c r="B56" s="26">
         <v>12</v>
       </c>
@@ -33015,7 +33015,7 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="107"/>
+      <c r="A57" s="108"/>
       <c r="B57" s="26">
         <v>11</v>
       </c>
@@ -33042,7 +33042,7 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="107"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="26">
         <v>3</v>
       </c>
@@ -33069,7 +33069,7 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="107"/>
+      <c r="A59" s="108"/>
       <c r="B59" s="26">
         <v>8</v>
       </c>
@@ -33096,7 +33096,7 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="108"/>
+      <c r="A60" s="109"/>
       <c r="B60" s="34">
         <v>3</v>
       </c>
@@ -33123,7 +33123,7 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="107" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="38">
@@ -33152,7 +33152,7 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="107"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="26">
         <v>12</v>
       </c>
@@ -33179,7 +33179,7 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="107"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="26">
         <v>8</v>
       </c>
@@ -33206,7 +33206,7 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="107"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="26">
         <v>4</v>
       </c>
@@ -33233,7 +33233,7 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="107"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="30">
         <v>4</v>
       </c>
@@ -33260,7 +33260,7 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="108"/>
+      <c r="A66" s="109"/>
       <c r="B66" s="34">
         <v>4</v>
       </c>
@@ -33287,7 +33287,7 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="107" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="38">
@@ -33316,7 +33316,7 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="107"/>
+      <c r="A68" s="108"/>
       <c r="B68" s="30">
         <v>4</v>
       </c>
@@ -33343,7 +33343,7 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="107"/>
+      <c r="A69" s="108"/>
       <c r="B69" s="30">
         <v>4</v>
       </c>
@@ -33370,7 +33370,7 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="107"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="26">
         <v>8</v>
       </c>
@@ -33397,7 +33397,7 @@
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="107"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="26">
         <v>12</v>
       </c>
@@ -33424,7 +33424,7 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="108"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="34">
         <v>4</v>
       </c>
@@ -33451,7 +33451,7 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="107" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="38">
@@ -33480,7 +33480,7 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="107"/>
+      <c r="A74" s="108"/>
       <c r="B74" s="26">
         <v>4</v>
       </c>
@@ -33507,7 +33507,7 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="107"/>
+      <c r="A75" s="108"/>
       <c r="B75" s="26">
         <v>4</v>
       </c>
@@ -33534,7 +33534,7 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="107"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="26">
         <v>12</v>
       </c>
@@ -33561,7 +33561,7 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="107"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="30">
         <v>4</v>
       </c>
@@ -33588,7 +33588,7 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="108"/>
+      <c r="A78" s="109"/>
       <c r="B78" s="34">
         <v>4</v>
       </c>
@@ -33615,7 +33615,7 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="107" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="17">
@@ -33644,7 +33644,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="107"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="26">
         <v>4</v>
       </c>
@@ -33671,7 +33671,7 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="107"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="26">
         <v>4</v>
       </c>
@@ -33698,7 +33698,7 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="107"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="26">
         <v>5</v>
       </c>
@@ -33725,7 +33725,7 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="108"/>
+      <c r="A83" s="109"/>
       <c r="B83" s="34">
         <v>4</v>
       </c>
@@ -33753,17 +33753,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A79:A83"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
